--- a/Solar Forecasting/Parameter Tuning.xlsx
+++ b/Solar Forecasting/Parameter Tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df56bcf1b7338548/Documents/GitHub/SeniorDesign/Solar Forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{3B470B55-7330-44D8-A21D-CC8B057923D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA34615-2E11-4A1F-BD13-4BC83259D138}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{3B470B55-7330-44D8-A21D-CC8B057923D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F468C4-1075-4CC8-A033-014D40789EC8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{65110851-02A7-4AC7-90E9-6DC6385F35E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Solar Forecasting Parameter Tuning :)</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Memory up to an hour</t>
-  </si>
-  <si>
     <t>ReLU (10)</t>
   </si>
   <si>
@@ -110,7 +107,10 @@
     <t>ReLU (12)</t>
   </si>
   <si>
-    <t>Memory up to two hours</t>
+    <t>Removed index layer, added memory</t>
+  </si>
+  <si>
+    <t>Removed index layer</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E9C7F297-6884-4761-810D-E9095EA5E368}" name="Table3" displayName="Table3" ref="B4:L15" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="B4:L15" xr:uid="{E9C7F297-6884-4761-810D-E9095EA5E368}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E9C7F297-6884-4761-810D-E9095EA5E368}" name="Table3" displayName="Table3" ref="B4:L17" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="B4:L17" xr:uid="{E9C7F297-6884-4761-810D-E9095EA5E368}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6F0721B4-9FC4-4C56-AF50-41FDF09AAEAD}" name="Model #" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{11FEBB8E-FB14-4758-9EC1-120C3E745E3D}" name="# Hidden Layers" dataDxfId="9"/>
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A7848-BF7C-4FC5-A423-83BCCEC5BCDD}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,10 +687,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -774,13 +774,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
@@ -857,9 +857,7 @@
       <c r="K10" s="8">
         <v>0.17299999999999999</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
@@ -890,9 +888,7 @@
       <c r="K11" s="8">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="8">
@@ -923,9 +919,7 @@
       <c r="K12" s="8">
         <v>0.16900000000000001</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="8">
@@ -935,16 +929,16 @@
         <v>4</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>12</v>
@@ -958,9 +952,7 @@
       <c r="K13" s="8">
         <v>0.185</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
@@ -970,10 +962,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -989,9 +981,7 @@
       <c r="K14" s="9">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="8">
@@ -1001,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1018,11 +1008,55 @@
         <v>10</v>
       </c>
       <c r="K15" s="8">
-        <v>0.17199999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>300</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.154</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solar Forecasting/Parameter Tuning.xlsx
+++ b/Solar Forecasting/Parameter Tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df56bcf1b7338548/Documents/GitHub/SeniorDesign/Solar Forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{3B470B55-7330-44D8-A21D-CC8B057923D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F468C4-1075-4CC8-A033-014D40789EC8}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{3B470B55-7330-44D8-A21D-CC8B057923D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4192C22D-F102-456A-A5CD-CDE2C798DC16}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{65110851-02A7-4AC7-90E9-6DC6385F35E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Solar Forecasting Parameter Tuning :)</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Removed index layer</t>
+  </si>
+  <si>
+    <t>Test size reduced from 0.33 to 0.2</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A7848-BF7C-4FC5-A423-83BCCEC5BCDD}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,17 +1049,35 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>300</v>
+      </c>
+      <c r="J17" s="7">
+        <v>10</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
